--- a/banhang24/Template/ExportExcel/Report/BaoCaoBanHang/Teamplate_BaoCaoBanHangTheoNhanVien.xlsx
+++ b/banhang24/Template/ExportExcel/Report/BaoCaoBanHang/Teamplate_BaoCaoBanHangTheoNhanVien.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Tổng cộng:</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>Chi phí</t>
+  </si>
+  <si>
+    <t>Giảm trừ Bảo hiểm</t>
   </si>
 </sst>
 </file>
@@ -516,11 +519,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M29"/>
+  <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
+      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -530,15 +533,17 @@
     <col min="4" max="4" width="18.42578125" style="10" customWidth="1"/>
     <col min="5" max="5" width="17.5703125" style="10" customWidth="1"/>
     <col min="6" max="6" width="18.85546875" style="10" customWidth="1"/>
-    <col min="7" max="8" width="16.42578125" style="10" customWidth="1"/>
-    <col min="9" max="9" width="17.5703125" style="10" customWidth="1"/>
-    <col min="10" max="10" width="18.5703125" style="10" customWidth="1"/>
-    <col min="11" max="11" width="19.7109375" style="10" customWidth="1"/>
-    <col min="12" max="12" width="16.85546875" style="10" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="7" width="16.42578125" style="10" customWidth="1"/>
+    <col min="8" max="8" width="26.5703125" style="10" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" style="10" customWidth="1"/>
+    <col min="10" max="10" width="17.5703125" style="10" customWidth="1"/>
+    <col min="11" max="11" width="18.5703125" style="10" customWidth="1"/>
+    <col min="12" max="12" width="19.7109375" style="10" customWidth="1"/>
+    <col min="13" max="13" width="16.85546875" style="10" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>1</v>
       </c>
@@ -553,9 +558,10 @@
       <c r="J1" s="14"/>
       <c r="K1" s="14"/>
       <c r="L1" s="14"/>
-      <c r="M1" s="2"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M1" s="14"/>
+      <c r="N1" s="2"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="15"/>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -568,12 +574,13 @@
       <c r="J2" s="15"/>
       <c r="K2" s="15"/>
       <c r="L2" s="15"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M2" s="15"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
     </row>
-    <row r="4" spans="1:13" s="3" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" s="3" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -596,22 +603,25 @@
         <v>8</v>
       </c>
       <c r="H4" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="J4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="K4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="L4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="11" t="s">
+      <c r="M4" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="12"/>
@@ -624,8 +634,9 @@
       <c r="J5" s="12"/>
       <c r="K5" s="12"/>
       <c r="L5" s="12"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M5" s="12"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="12"/>
@@ -638,8 +649,9 @@
       <c r="J6" s="12"/>
       <c r="K6" s="12"/>
       <c r="L6" s="12"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M6" s="12"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="12"/>
@@ -652,8 +664,9 @@
       <c r="J7" s="12"/>
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M7" s="12"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="12"/>
@@ -666,8 +679,9 @@
       <c r="J8" s="12"/>
       <c r="K8" s="12"/>
       <c r="L8" s="12"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M8" s="12"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="12"/>
@@ -680,8 +694,9 @@
       <c r="J9" s="12"/>
       <c r="K9" s="12"/>
       <c r="L9" s="12"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M9" s="12"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="12"/>
@@ -694,8 +709,9 @@
       <c r="J10" s="12"/>
       <c r="K10" s="12"/>
       <c r="L10" s="12"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M10" s="12"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="12"/>
@@ -708,8 +724,9 @@
       <c r="J11" s="12"/>
       <c r="K11" s="12"/>
       <c r="L11" s="12"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M11" s="12"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="12"/>
@@ -722,8 +739,9 @@
       <c r="J12" s="12"/>
       <c r="K12" s="12"/>
       <c r="L12" s="12"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M12" s="12"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="12"/>
@@ -736,8 +754,9 @@
       <c r="J13" s="12"/>
       <c r="K13" s="12"/>
       <c r="L13" s="12"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M13" s="12"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="12"/>
@@ -750,8 +769,9 @@
       <c r="J14" s="12"/>
       <c r="K14" s="12"/>
       <c r="L14" s="12"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M14" s="12"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="12"/>
@@ -764,8 +784,9 @@
       <c r="J15" s="12"/>
       <c r="K15" s="12"/>
       <c r="L15" s="12"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M15" s="12"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="12"/>
@@ -778,8 +799,9 @@
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
       <c r="L16" s="12"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M16" s="12"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="12"/>
@@ -792,8 +814,9 @@
       <c r="J17" s="12"/>
       <c r="K17" s="12"/>
       <c r="L17" s="12"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M17" s="12"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="12"/>
@@ -806,8 +829,9 @@
       <c r="J18" s="12"/>
       <c r="K18" s="12"/>
       <c r="L18" s="12"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M18" s="12"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="12"/>
@@ -820,8 +844,9 @@
       <c r="J19" s="12"/>
       <c r="K19" s="12"/>
       <c r="L19" s="12"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M19" s="12"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="12"/>
@@ -834,8 +859,9 @@
       <c r="J20" s="12"/>
       <c r="K20" s="12"/>
       <c r="L20" s="12"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M20" s="12"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="12"/>
@@ -848,8 +874,9 @@
       <c r="J21" s="12"/>
       <c r="K21" s="12"/>
       <c r="L21" s="12"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M21" s="12"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="12"/>
@@ -862,8 +889,9 @@
       <c r="J22" s="12"/>
       <c r="K22" s="12"/>
       <c r="L22" s="12"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M22" s="12"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="12"/>
@@ -876,8 +904,9 @@
       <c r="J23" s="12"/>
       <c r="K23" s="12"/>
       <c r="L23" s="12"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M23" s="12"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="12"/>
@@ -890,8 +919,9 @@
       <c r="J24" s="12"/>
       <c r="K24" s="12"/>
       <c r="L24" s="12"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M24" s="12"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="12"/>
@@ -904,8 +934,9 @@
       <c r="J25" s="12"/>
       <c r="K25" s="12"/>
       <c r="L25" s="12"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M25" s="12"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="12"/>
@@ -918,8 +949,9 @@
       <c r="J26" s="12"/>
       <c r="K26" s="12"/>
       <c r="L26" s="12"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M26" s="12"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="12"/>
@@ -932,8 +964,9 @@
       <c r="J27" s="12"/>
       <c r="K27" s="12"/>
       <c r="L27" s="12"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M27" s="12"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="12"/>
@@ -946,8 +979,9 @@
       <c r="J28" s="12"/>
       <c r="K28" s="12"/>
       <c r="L28" s="12"/>
-    </row>
-    <row r="29" spans="1:12" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M28" s="12"/>
+    </row>
+    <row r="29" spans="1:13" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>0</v>
       </c>
@@ -992,11 +1026,15 @@
         <f>SUM(L$5:L28)</f>
         <v>0</v>
       </c>
+      <c r="M29" s="13">
+        <f>SUM(M$5:M28)</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A2:M2"/>
   </mergeCells>
   <pageMargins left="0.76" right="0.23" top="0.78" bottom="0.87" header="0.3" footer="0.7"/>
   <pageSetup scale="95" orientation="landscape" r:id="rId1"/>
